--- a/jennidata.xlsx
+++ b/jennidata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela Morassi\Documents\Github\ClarkLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51885F5-5027-4F92-BAF5-E46AA6819148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27A730-75E9-4A5C-8E6E-61B23ECB04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,21 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="18" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1240,7 +1251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]experiment1_j_new!$Q$3:$Q$4</c:f>
+              <c:f>jennidata!$O$6:$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1308,7 +1319,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>[1]experiment1_j_new!$Q$3:$Q$4</c:f>
+              <c:f>jennidata!$N$8:$N$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1322,7 +1333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]experiment1_j_new!$Q$3:$Q$4</c:f>
+              <c:f>jennidata!$O$8:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1346,7 +1357,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]experiment1_j_new!$Q$3:$Q$4</c:f>
+              <c:f>jennidata!$P$6:$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +1425,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>[1]experiment1_j_new!$Q$3:$Q$4</c:f>
+              <c:f>jennidata!$N$8:$N$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1428,7 +1439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]experiment1_j_new!$Q$3:$Q$4</c:f>
+              <c:f>jennidata!$P$8:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -8926,7 +8937,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BD8A96E-9BA1-469D-8B65-0F9B0BA08CC4}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BD8A96E-9BA1-469D-8B65-0F9B0BA08CC4}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="N6:Q10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -9277,7 +9288,7 @@
   <dataFields count="1">
     <dataField name="Average of root" fld="6" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
-  <chartFormats count="7">
+  <chartFormats count="3">
     <chartFormat chart="0" format="17" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -9310,54 +9321,6 @@
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -9675,8 +9638,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/jennidata.xlsx
+++ b/jennidata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela Morassi\Documents\Github\ClarkLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27A730-75E9-4A5C-8E6E-61B23ECB04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5DCB5E-D6D6-4525-BDA0-A9E3E0382D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="35">
   <si>
     <t>plate_id</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>7.5 µM ATPƴS</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.5</c:v>
+                  <c:v>7.5 µM ATPƴS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8937,7 +8940,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BD8A96E-9BA1-469D-8B65-0F9B0BA08CC4}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BD8A96E-9BA1-469D-8B65-0F9B0BA08CC4}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="N6:Q10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8952,7 +8955,7 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
+        <item n="7.5 µM ATPƴS" x="1"/>
         <item m="1" x="2"/>
         <item t="default"/>
       </items>
@@ -9638,8 +9641,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9965,8 +9968,8 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>7.5</v>
+      <c r="P7" t="s">
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
